--- a/art/美术量/3D/特效/特效外包3_20151120.xlsx
+++ b/art/美术量/3D/特效/特效外包3_20151120.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/art/美术量/3D/特效/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\art\美术量\3D\特效\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="580" windowWidth="37380" windowHeight="20000" tabRatio="500"/>
+    <workbookView xWindow="1815" yWindow="585" windowWidth="37380" windowHeight="19995" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,13 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>炸弹型buff</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物脚下十字架破碎上升特效</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -114,10 +110,6 @@
   </si>
   <si>
     <t>bd_zhadan</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bd_jinzhihuifu</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -187,11 +179,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>幕布背景
-暗色系样式，用以突出宠物动作和特效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>dazhao_mubu</t>
   </si>
   <si>
@@ -215,9 +202,6 @@
   <si>
     <t>橙黄色燃烧效果</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>橙黄色效果，爆点效果要大一些，可以类似</t>
   </si>
   <si>
     <t>物理大招爆点效果</t>
@@ -261,13 +245,37 @@
   </si>
   <si>
     <t>屏幕两侧向中间迅速聚拢云朵，聚拢过程约0.5秒，将整个屏幕挡住，停留1s，此时切换场景，然后云朵开始向两侧散开，散开过程约0.5秒，最终离开屏幕。</t>
+  </si>
+  <si>
+    <t>参考视频 34-39的背景，暗色的背景有红色的云雾在浮动。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>同法术大招爆点效果更改为橙黄色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考视频（不要视频中的停顿）30-32秒 身上围绕着气之后紧接着爆出大范围的光</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字架裂开特效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bd_jinzhihuifu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色裂开的十字架特效。提示玩家该怪物目前不可被治疗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,7 +322,16 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -334,10 +351,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -369,15 +387,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -426,44 +454,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>14514</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1814</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1049434</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1024947</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7852228" y="1589314"/>
-          <a:ext cx="1034920" cy="1023133"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>150131</xdr:rowOff>
@@ -482,7 +472,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -509,8 +499,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1668106</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1078448</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2123</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -520,7 +510,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -558,7 +548,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -596,7 +586,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -617,72 +607,6 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2420502" cy="1496786"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8273143" y="6694714"/>
-          <a:ext cx="2420502" cy="1496786"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="979714" cy="1302755"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8273144" y="8218714"/>
-          <a:ext cx="979714" cy="1302755"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -695,7 +619,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -716,39 +640,6 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1155717" cy="1288143"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="图片 16"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8273143" y="10903857"/>
-          <a:ext cx="1155717" cy="1288143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
@@ -761,7 +652,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -794,7 +685,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -827,7 +718,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -865,7 +756,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -880,6 +771,271 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>387806</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1517183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1353912</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1289582</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9048752" y="9402522"/>
+          <a:ext cx="966106" cy="1296399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1455965</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2462893</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1292302</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10116911" y="9412282"/>
+          <a:ext cx="1006928" cy="1289359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1536623</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1334565</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8803821" y="6470196"/>
+          <a:ext cx="1393748" cy="1225708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>374197</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1340303</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1310006</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9035143" y="12103553"/>
+          <a:ext cx="966106" cy="1296399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1462768</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>20411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2469696</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1309770</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10123714" y="12110357"/>
+          <a:ext cx="1006928" cy="1289359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>258538</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>156485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>911680</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>979715</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="23" name="组合 22"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8926288" y="1642385"/>
+          <a:ext cx="653142" cy="823230"/>
+          <a:chOff x="8660946" y="1483179"/>
+          <a:chExt cx="2161905" cy="2586583"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="24" name="图片 23"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="20331763">
+            <a:off x="8660946" y="1483179"/>
+            <a:ext cx="2161905" cy="1295238"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="25" name="图片 24"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="566277">
+            <a:off x="9275235" y="2850714"/>
+            <a:ext cx="961906" cy="1219048"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1150,38 +1306,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="48.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="42.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1189,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1206,17 +1362,19 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1229,178 +1387,186 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" ht="34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:15" ht="51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="68" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="85" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="83" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="83.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="9" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="106" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="105.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="106" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="105.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="106" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="105.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="106" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="105.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="175" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="174.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D11" r:id="rId1" display="参考视频 30-32秒 "/>
+    <hyperlink ref="D9" r:id="rId2" display="参考视频"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/art/美术量/3D/特效/特效外包3_20151120.xlsx
+++ b/art/美术量/3D/特效/特效外包3_20151120.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\art\美术量\3D\特效\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/art/美术量/3D/特效/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="585" windowWidth="37380" windowHeight="19995" tabRatio="500"/>
+    <workbookView xWindow="39720" yWindow="620" windowWidth="37380" windowHeight="20000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>炸弹型buff</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -268,6 +268,22 @@
   </si>
   <si>
     <t>紫色裂开的十字架特效。提示玩家该怪物目前不可被治疗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术大招聚气</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理大招聚气效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fashudazhao_juqi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wulidazhao_juqi</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -607,7 +623,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1759857" cy="1323787"/>
@@ -640,7 +656,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1291941" cy="1297214"/>
@@ -739,13 +755,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>18143</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>7258</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>255</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>2168071</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -815,13 +831,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1455965</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>2943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2462893</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1292302</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -891,13 +907,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>374197</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>13607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1340303</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>1310006</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -929,13 +945,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1462768</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>20411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2469696</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>1309770</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -983,7 +999,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8926288" y="1642385"/>
+          <a:off x="7967438" y="1667785"/>
           <a:ext cx="653142" cy="823230"/>
           <a:chOff x="8660946" y="1483179"/>
           <a:chExt cx="2161905" cy="2586583"/>
@@ -1038,6 +1054,105 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1455965</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2943</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1006928" cy="1289359"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10123715" y="10937643"/>
+          <a:ext cx="1006928" cy="1289359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>374197</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="966106" cy="1296399"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9041947" y="14796407"/>
+          <a:ext cx="966106" cy="1296399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1462768</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>20411</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1006928" cy="1289359"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10130518" y="14803211"/>
+          <a:ext cx="1006928" cy="1289359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1304,23 +1419,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="48.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="42.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.77734375" style="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
@@ -1337,7 +1452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1362,7 +1477,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1387,7 +1502,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="34" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1405,7 +1520,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="51" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1419,7 +1534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="66" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="68" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1433,7 +1548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="85" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1447,7 +1562,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="83.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="83" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1461,7 +1576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1475,7 +1590,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1489,7 +1604,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="105.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="106" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1503,70 +1618,99 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="105.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="106" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>32</v>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>33</v>
+        <v>49</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="105.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="106" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="105.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="106" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="174.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="106" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="106" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="175" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1" display="参考视频 30-32秒 "/>
+    <hyperlink ref="D12" r:id="rId1" display="参考视频 30-32秒 "/>
     <hyperlink ref="D9" r:id="rId2" display="参考视频"/>
+    <hyperlink ref="D11" r:id="rId3" display="参考视频 30-32秒 "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>